--- a/sample_data/ACL-Intake-Form.xlsx
+++ b/sample_data/ACL-Intake-Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9A4202-D9CE-C840-B731-0A4F6C06D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{6E9A4202-D9CE-C840-B731-0A4F6C06D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3DDF27-14B5-904F-A029-37F3477DCB35}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{8CD9028D-EAA5-1540-B491-1BAEAEAE6A66}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>Type of Surgery</t>
+  </si>
+  <si>
+    <t>Frank Reynolds</t>
+  </si>
+  <si>
+    <t>Freestyle Skiing</t>
+  </si>
+  <si>
+    <t>National Team</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>Hamstring</t>
+  </si>
+  <si>
+    <t>Brief Note</t>
+  </si>
+  <si>
+    <t>Limb</t>
+  </si>
+  <si>
+    <t>LEFT</t>
   </si>
 </sst>
 </file>
@@ -101,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,66 +462,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73D00AE-46E8-F24D-B476-714F1D0EF18B}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>36750</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45840</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45848</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/ACL-Intake-Form.xlsx
+++ b/sample_data/ACL-Intake-Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csip-my.sharepoint.com/personal/akates_csipacific_ca/Documents/CSI-Pacific-RTP/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{6E9A4202-D9CE-C840-B731-0A4F6C06D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3DDF27-14B5-904F-A029-37F3477DCB35}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{6E9A4202-D9CE-C840-B731-0A4F6C06D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CB49F6-A77A-AB41-AB11-52B01D090622}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{8CD9028D-EAA5-1540-B491-1BAEAEAE6A66}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <t>Limb</t>
   </si>
   <si>
-    <t>LEFT</t>
+    <t>Left</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
